--- a/biology/Médecine/Sylvie_Ngouadakpa/Sylvie_Ngouadakpa.xlsx
+++ b/biology/Médecine/Sylvie_Ngouadakpa/Sylvie_Ngouadakpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sylvie Ngouadakpa est une infirmière et maîtresse de conférence centrafricaine. Elle est la première femme centrafricaine à recevoir la médaille Florence-Nightingale.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sylvie Ngouadakpa commence sa carrière comme infirmière[1]. Elle devient rapidement également enseignante à l’Institut national d’Enseignement médico-social de santé publique de Bangui, où elle continue à enseigner pour la suite de sa carrière[1].
-Elle est à la tête de l'Association des infirmières sages-femmes de la République centrafricaine (ANISCA) au moment de sa nomination[1],[2], et a été cheffe de département des infirmiers diplômés d'État[1].  
-En 2011, Ngouadakpa devient la première femme centrafricaine à recevoir la médaille Florence-Nightingale[3]. Dans son discours d'acceptation, elle dédie le prix à toutes les infirmières de la République centrafricaine, estimant qu'elles méritent une meilleure reconnaissance[1] et de recevoir des meilleures formations au coût couvert par l'État[2]. Éligible à la retraite, elle choisit de plutôt diriger un institut universitaire de formation paramédicale en collaboration avec l'université de Bangui[1] et la Croix-Rouge centrafricaine[3],[2]. Cet établissement reçoit sa première promotion en 2011[2].
-Ngouadakpa est mariée et mère de sept enfants[1]. Elle se déplace à l'aide d'une béquille[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sylvie Ngouadakpa commence sa carrière comme infirmière. Elle devient rapidement également enseignante à l’Institut national d’Enseignement médico-social de santé publique de Bangui, où elle continue à enseigner pour la suite de sa carrière.
+Elle est à la tête de l'Association des infirmières sages-femmes de la République centrafricaine (ANISCA) au moment de sa nomination et a été cheffe de département des infirmiers diplômés d'État.  
+En 2011, Ngouadakpa devient la première femme centrafricaine à recevoir la médaille Florence-Nightingale. Dans son discours d'acceptation, elle dédie le prix à toutes les infirmières de la République centrafricaine, estimant qu'elles méritent une meilleure reconnaissance et de recevoir des meilleures formations au coût couvert par l'État. Éligible à la retraite, elle choisit de plutôt diriger un institut universitaire de formation paramédicale en collaboration avec l'université de Bangui et la Croix-Rouge centrafricaine,. Cet établissement reçoit sa première promotion en 2011.
+Ngouadakpa est mariée et mère de sept enfants. Elle se déplace à l'aide d'une béquille.
 </t>
         </is>
       </c>
